--- a/data/2019Preds.xlsx
+++ b/data/2019Preds.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,22 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tang-\Documents\Python\skynet2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E7CD7439-45CF-4D6B-B434-AFF2D4D1D04D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A075A24E-4F69-4A87-89D6-2D45564C4D3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pointouts" sheetId="2" r:id="rId1"/>
     <sheet name="2019PredsWholeModel" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'2019PredsWholeModel'!$T$2:$T$820</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'2019PredsWholeModel'!$R$2:$R$820</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'2019PredsWholeModel'!$R$2:$R$820</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1803,7 +1812,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2352,7 +2361,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3005,7 +3014,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11887200" y="224790"/>
+              <a:off x="14577060" y="224790"/>
               <a:ext cx="4572000" cy="3364230"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3040,7 +3049,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Jiayi Tang" refreshedDate="43797.849597916669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="819">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jiayi Tang" refreshedDate="43797.849597916669" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="819" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:R820" sheet="2019PredsWholeModel"/>
   </cacheSource>
@@ -20901,7 +20910,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A9:C41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="7" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -21975,7 +21984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -22414,11 +22423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R820"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="I423" workbookViewId="0">
+      <selection activeCell="I427" sqref="I427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68499,7 +68508,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -68510,6 +68519,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P2:Q1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
